--- a/Fehlerbewertung/error_kfcs.xlsx
+++ b/Fehlerbewertung/error_kfcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Deutschland\Karlsruher Institut für Technologie\4. Semester\Compressive Sensing + Filterung\1 Codes Compressive\Fehlerbewertung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0299F97E-4EE4-4E2E-8067-01130365D3DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C210EA-A09A-4455-B646-7168691812BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2655" windowWidth="21600" windowHeight="11835" xr2:uid="{F3ED0187-E458-441B-8F3A-00C8250CD420}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11835" xr2:uid="{F3ED0187-E458-441B-8F3A-00C8250CD420}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
